--- a/voor_onderzoek_update/1 januari 2020 - nu/winner_percentage_EURUSD=X.xlsx
+++ b/voor_onderzoek_update/1 januari 2020 - nu/winner_percentage_EURUSD=X.xlsx
@@ -21,12 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="347">
   <si>
-    <t>Dates</t>
-  </si>
-  <si>
-    <t>percentage</t>
-  </si>
-  <si>
     <t>EURUSD=X</t>
   </si>
   <si>
@@ -1060,6 +1054,12 @@
   </si>
   <si>
     <t>10/12/2020</t>
+  </si>
+  <si>
+    <t>Datum</t>
+  </si>
+  <si>
+    <t>AI</t>
   </si>
 </sst>
 </file>
@@ -1138,6 +1138,50 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-NL" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>AI versus EUR/USD-pair, 1 januari 2020 - 10 december 2020, percentages </a:t>
+            </a:r>
+            <a:endParaRPr lang="nl-NL">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1151,13 +1195,27 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
-                </a:schemeClr>
+                </a:sysClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1183,7 +1241,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>percentage</c:v>
+                  <c:v>AI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5401,16 +5459,72 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="510826592"/>
-        <c:axId val="510828160"/>
+        <c:axId val="629255176"/>
+        <c:axId val="629256352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="510826592"/>
+        <c:axId val="629255176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL"/>
+                  <a:t>Datum</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5448,7 +5562,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="510828160"/>
+        <c:crossAx val="629256352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5456,7 +5570,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="510828160"/>
+        <c:axId val="629256352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5476,6 +5590,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL"/>
+                  <a:t>Percentage winst/verlies</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5507,7 +5677,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="510826592"/>
+        <c:crossAx val="629255176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6468,26 +6638,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C345"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y13" sqref="Y13"/>
+    <sheetView tabSelected="1" topLeftCell="A331" workbookViewId="0">
+      <selection activeCell="U349" sqref="U349"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -6498,7 +6668,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -6509,7 +6679,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -6520,7 +6690,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -6531,7 +6701,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -6542,7 +6712,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -6553,7 +6723,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -6564,7 +6734,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -6575,7 +6745,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -6586,7 +6756,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -6597,7 +6767,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -6608,7 +6778,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -6619,7 +6789,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -6630,7 +6800,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -6641,7 +6811,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>0.17000000000000171</v>
@@ -6652,7 +6822,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>6.0000000000002267E-2</v>
@@ -6663,7 +6833,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>6.0000000000002267E-2</v>
@@ -6674,7 +6844,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>6.0000000000002267E-2</v>
@@ -6685,7 +6855,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>6.0000000000002267E-2</v>
@@ -6696,7 +6866,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>6.0000000000002267E-2</v>
@@ -6707,7 +6877,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>-3.000000000000114E-2</v>
@@ -6718,7 +6888,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B23">
         <v>-3.000000000000114E-2</v>
@@ -6729,7 +6899,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <v>-3.000000000000114E-2</v>
@@ -6740,7 +6910,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B25">
         <v>-3.000000000000114E-2</v>
@@ -6751,7 +6921,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B26">
         <v>-3.000000000000114E-2</v>
@@ -6762,7 +6932,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B27">
         <v>-3.000000000000114E-2</v>
@@ -6773,7 +6943,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B28">
         <v>-6.9999999999993179E-2</v>
@@ -6784,7 +6954,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B29">
         <v>-4.9999999999997158E-2</v>
@@ -6795,7 +6965,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B30">
         <v>-9.0000000000003411E-2</v>
@@ -6806,7 +6976,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -6817,7 +6987,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -6828,7 +6998,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -6839,7 +7009,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B34">
         <v>0.45999999999999369</v>
@@ -6850,7 +7020,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B35">
         <v>0.45999999999999369</v>
@@ -6861,7 +7031,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B36">
         <v>0.45999999999999369</v>
@@ -6872,7 +7042,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B37">
         <v>0.45999999999999369</v>
@@ -6883,7 +7053,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B38">
         <v>0.45999999999999369</v>
@@ -6894,7 +7064,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B39">
         <v>0.45999999999999369</v>
@@ -6905,7 +7075,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B40">
         <v>0.45999999999999369</v>
@@ -6916,7 +7086,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B41">
         <v>0.45999999999999369</v>
@@ -6927,7 +7097,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B42">
         <v>0.45999999999999369</v>
@@ -6938,7 +7108,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B43">
         <v>0.45999999999999369</v>
@@ -6949,7 +7119,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B44">
         <v>0.45999999999999369</v>
@@ -6960,7 +7130,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B45">
         <v>0.23000000000000401</v>
@@ -6971,7 +7141,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B46">
         <v>0.23000000000000401</v>
@@ -6982,7 +7152,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B47">
         <v>0.23000000000000401</v>
@@ -6993,7 +7163,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B48">
         <v>0.20000000000000279</v>
@@ -7004,7 +7174,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B49">
         <v>0.1899999999999977</v>
@@ -7015,7 +7185,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B50">
         <v>-0.15999999999999659</v>
@@ -7026,7 +7196,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B51">
         <v>-4.9999999999997158E-2</v>
@@ -7037,7 +7207,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B52">
         <v>-0.21999999999999889</v>
@@ -7048,7 +7218,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B53">
         <v>-0.21999999999999889</v>
@@ -7059,7 +7229,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B54">
         <v>-0.21999999999999889</v>
@@ -7070,7 +7240,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B55">
         <v>0.18000000000000679</v>
@@ -7081,7 +7251,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B56">
         <v>0.18000000000000679</v>
@@ -7092,7 +7262,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B57">
         <v>0.18000000000000679</v>
@@ -7103,7 +7273,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B58">
         <v>0.18000000000000679</v>
@@ -7114,7 +7284,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B59">
         <v>0.18000000000000679</v>
@@ -7125,7 +7295,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B60">
         <v>0.18000000000000679</v>
@@ -7136,7 +7306,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B61">
         <v>0.18000000000000679</v>
@@ -7147,7 +7317,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B62">
         <v>0.18000000000000679</v>
@@ -7158,7 +7328,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B63">
         <v>0.18000000000000679</v>
@@ -7169,7 +7339,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B64">
         <v>0.18000000000000679</v>
@@ -7180,7 +7350,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B65">
         <v>0.18000000000000679</v>
@@ -7191,7 +7361,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B66">
         <v>0.18000000000000679</v>
@@ -7202,7 +7372,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B67">
         <v>0.18000000000000679</v>
@@ -7213,7 +7383,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B68">
         <v>0.18000000000000679</v>
@@ -7224,7 +7394,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B69">
         <v>0.18000000000000679</v>
@@ -7235,7 +7405,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B70">
         <v>0.18000000000000679</v>
@@ -7246,7 +7416,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B71">
         <v>0.18000000000000679</v>
@@ -7257,7 +7427,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B72">
         <v>0.18000000000000679</v>
@@ -7268,7 +7438,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B73">
         <v>0.18000000000000679</v>
@@ -7279,7 +7449,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B74">
         <v>0.18000000000000679</v>
@@ -7290,7 +7460,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B75">
         <v>0.18000000000000679</v>
@@ -7301,7 +7471,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B76">
         <v>0.18000000000000679</v>
@@ -7312,7 +7482,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B77">
         <v>0.18000000000000679</v>
@@ -7323,7 +7493,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B78">
         <v>0.18000000000000679</v>
@@ -7334,7 +7504,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B79">
         <v>-0.23000000000000401</v>
@@ -7345,7 +7515,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B80">
         <v>-2.5400000000000058</v>
@@ -7356,7 +7526,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B81">
         <v>-2.5400000000000058</v>
@@ -7367,7 +7537,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B82">
         <v>-2.5400000000000058</v>
@@ -7378,7 +7548,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B83">
         <v>-2.2600000000000051</v>
@@ -7389,7 +7559,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B84">
         <v>-1.7199999999999991</v>
@@ -7400,7 +7570,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B85">
         <v>-1.430000000000007</v>
@@ -7411,7 +7581,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B86">
         <v>-0.76999999999999602</v>
@@ -7422,7 +7592,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B87">
         <v>0.43000000000000682</v>
@@ -7433,7 +7603,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B88">
         <v>0.43000000000000682</v>
@@ -7444,7 +7614,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B89">
         <v>0.43000000000000682</v>
@@ -7455,7 +7625,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B90">
         <v>1.120000000000005</v>
@@ -7466,7 +7636,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B91">
         <v>1.120000000000005</v>
@@ -7477,7 +7647,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B92">
         <v>1.090000000000003</v>
@@ -7488,7 +7658,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B93">
         <v>1.090000000000003</v>
@@ -7499,7 +7669,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B94">
         <v>1.090000000000003</v>
@@ -7510,7 +7680,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B95">
         <v>1.090000000000003</v>
@@ -7521,7 +7691,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B96">
         <v>1.090000000000003</v>
@@ -7532,7 +7702,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B97">
         <v>1.090000000000003</v>
@@ -7543,7 +7713,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B98">
         <v>1.090000000000003</v>
@@ -7554,7 +7724,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B99">
         <v>1.090000000000003</v>
@@ -7565,7 +7735,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B100">
         <v>1.090000000000003</v>
@@ -7576,7 +7746,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B101">
         <v>1.090000000000003</v>
@@ -7587,7 +7757,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B102">
         <v>1.090000000000003</v>
@@ -7598,7 +7768,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B103">
         <v>1.090000000000003</v>
@@ -7609,7 +7779,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B104">
         <v>1.090000000000003</v>
@@ -7620,7 +7790,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B105">
         <v>1.019999999999996</v>
@@ -7631,7 +7801,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B106">
         <v>1.019999999999996</v>
@@ -7642,7 +7812,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B107">
         <v>1.019999999999996</v>
@@ -7653,7 +7823,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B108">
         <v>1.019999999999996</v>
@@ -7664,7 +7834,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B109">
         <v>1.019999999999996</v>
@@ -7675,7 +7845,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B110">
         <v>1.019999999999996</v>
@@ -7686,7 +7856,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B111">
         <v>1.019999999999996</v>
@@ -7697,7 +7867,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B112">
         <v>1.019999999999996</v>
@@ -7708,7 +7878,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B113">
         <v>1.019999999999996</v>
@@ -7719,7 +7889,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B114">
         <v>0.65000000000000568</v>
@@ -7730,7 +7900,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B115">
         <v>0.40000000000000568</v>
@@ -7741,7 +7911,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B116">
         <v>0.40000000000000568</v>
@@ -7752,7 +7922,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B117">
         <v>0.40000000000000568</v>
@@ -7763,7 +7933,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B118">
         <v>0.76000000000000512</v>
@@ -7774,7 +7944,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B119">
         <v>0.76000000000000512</v>
@@ -7785,7 +7955,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B120">
         <v>0.76000000000000512</v>
@@ -7796,7 +7966,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B121">
         <v>1.0799999999999981</v>
@@ -7807,7 +7977,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B122">
         <v>1.0799999999999981</v>
@@ -7818,7 +7988,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B123">
         <v>1.0799999999999981</v>
@@ -7829,7 +7999,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B124">
         <v>1.0799999999999981</v>
@@ -7840,7 +8010,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B125">
         <v>1.0799999999999981</v>
@@ -7851,7 +8021,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B126">
         <v>1.0799999999999981</v>
@@ -7862,7 +8032,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B127">
         <v>1.0799999999999981</v>
@@ -7873,7 +8043,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B128">
         <v>1.0799999999999981</v>
@@ -7884,7 +8054,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B129">
         <v>1.0799999999999981</v>
@@ -7895,7 +8065,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B130">
         <v>1.0799999999999981</v>
@@ -7906,7 +8076,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B131">
         <v>1.0799999999999981</v>
@@ -7917,7 +8087,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B132">
         <v>1.0799999999999981</v>
@@ -7928,7 +8098,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B133">
         <v>1.0799999999999981</v>
@@ -7939,7 +8109,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B134">
         <v>1.0799999999999981</v>
@@ -7950,7 +8120,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B135">
         <v>1.0799999999999981</v>
@@ -7961,7 +8131,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B136">
         <v>1.0799999999999981</v>
@@ -7972,7 +8142,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B137">
         <v>1.0799999999999981</v>
@@ -7983,7 +8153,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B138">
         <v>1.0799999999999981</v>
@@ -7994,7 +8164,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B139">
         <v>1.1899999999999979</v>
@@ -8005,7 +8175,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B140">
         <v>1.9200000000000019</v>
@@ -8016,7 +8186,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B141">
         <v>1.9200000000000019</v>
@@ -8027,7 +8197,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B142">
         <v>1.9200000000000019</v>
@@ -8038,7 +8208,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B143">
         <v>1.9200000000000019</v>
@@ -8049,7 +8219,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B144">
         <v>1.9200000000000019</v>
@@ -8060,7 +8230,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B145">
         <v>1.9200000000000019</v>
@@ -8071,7 +8241,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B146">
         <v>1.9200000000000019</v>
@@ -8082,7 +8252,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B147">
         <v>1.9200000000000019</v>
@@ -8093,7 +8263,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B148">
         <v>1.9200000000000019</v>
@@ -8104,7 +8274,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B149">
         <v>1.9200000000000019</v>
@@ -8115,7 +8285,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B150">
         <v>1.9200000000000019</v>
@@ -8126,7 +8296,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B151">
         <v>1.9200000000000019</v>
@@ -8137,7 +8307,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B152">
         <v>1.9200000000000019</v>
@@ -8148,7 +8318,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B153">
         <v>1.9200000000000019</v>
@@ -8159,7 +8329,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B154">
         <v>1.9200000000000019</v>
@@ -8170,7 +8340,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B155">
         <v>1.9200000000000019</v>
@@ -8181,7 +8351,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B156">
         <v>1.9200000000000019</v>
@@ -8192,7 +8362,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B157">
         <v>1.9200000000000019</v>
@@ -8203,7 +8373,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B158">
         <v>1.9200000000000019</v>
@@ -8214,7 +8384,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B159">
         <v>1.9200000000000019</v>
@@ -8225,7 +8395,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B160">
         <v>1.9200000000000019</v>
@@ -8236,7 +8406,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B161">
         <v>1.9200000000000019</v>
@@ -8247,7 +8417,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B162">
         <v>1.9200000000000019</v>
@@ -8258,7 +8428,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B163">
         <v>1.9200000000000019</v>
@@ -8269,7 +8439,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B164">
         <v>1.9200000000000019</v>
@@ -8280,7 +8450,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B165">
         <v>1.9200000000000019</v>
@@ -8291,7 +8461,7 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B166">
         <v>1.9200000000000019</v>
@@ -8302,7 +8472,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B167">
         <v>1.9200000000000019</v>
@@ -8313,7 +8483,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B168">
         <v>1.9200000000000019</v>
@@ -8324,7 +8494,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B169">
         <v>1.9200000000000019</v>
@@ -8335,7 +8505,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B170">
         <v>1.9200000000000019</v>
@@ -8346,7 +8516,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B171">
         <v>1.680000000000007</v>
@@ -8357,7 +8527,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B172">
         <v>1.680000000000007</v>
@@ -8368,7 +8538,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B173">
         <v>1.680000000000007</v>
@@ -8379,7 +8549,7 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B174">
         <v>1.430000000000007</v>
@@ -8390,7 +8560,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B175">
         <v>2.2000000000000028</v>
@@ -8401,7 +8571,7 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B176">
         <v>2.4500000000000028</v>
@@ -8412,7 +8582,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B177">
         <v>1.980000000000004</v>
@@ -8423,7 +8593,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B178">
         <v>1.769999999999996</v>
@@ -8434,7 +8604,7 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B179">
         <v>1.769999999999996</v>
@@ -8445,7 +8615,7 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B180">
         <v>1.769999999999996</v>
@@ -8456,7 +8626,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B181">
         <v>1.790000000000006</v>
@@ -8467,7 +8637,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B182">
         <v>1.959999999999994</v>
@@ -8478,7 +8648,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B183">
         <v>1.870000000000005</v>
@@ -8489,7 +8659,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B184">
         <v>1.9899999999999951</v>
@@ -8500,7 +8670,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B185">
         <v>1.9899999999999951</v>
@@ -8511,7 +8681,7 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B186">
         <v>1.9899999999999951</v>
@@ -8522,7 +8692,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B187">
         <v>1.9899999999999951</v>
@@ -8533,7 +8703,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B188">
         <v>1.9899999999999951</v>
@@ -8544,7 +8714,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B189">
         <v>1.9899999999999951</v>
@@ -8555,7 +8725,7 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B190">
         <v>1.9899999999999951</v>
@@ -8566,7 +8736,7 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B191">
         <v>1.9899999999999951</v>
@@ -8577,7 +8747,7 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B192">
         <v>1.9899999999999951</v>
@@ -8588,7 +8758,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B193">
         <v>1.9899999999999951</v>
@@ -8599,7 +8769,7 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B194">
         <v>1.9899999999999951</v>
@@ -8610,7 +8780,7 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B195">
         <v>1.9899999999999951</v>
@@ -8621,7 +8791,7 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B196">
         <v>1.9899999999999951</v>
@@ -8632,7 +8802,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B197">
         <v>1.9899999999999951</v>
@@ -8643,7 +8813,7 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B198">
         <v>1.9899999999999951</v>
@@ -8654,7 +8824,7 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B199">
         <v>1.9899999999999951</v>
@@ -8665,7 +8835,7 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B200">
         <v>1.9899999999999951</v>
@@ -8676,7 +8846,7 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B201">
         <v>1.9899999999999951</v>
@@ -8687,7 +8857,7 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B202">
         <v>1.9899999999999951</v>
@@ -8698,7 +8868,7 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B203">
         <v>1.9899999999999951</v>
@@ -8709,7 +8879,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B204">
         <v>1.9899999999999951</v>
@@ -8720,7 +8890,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B205">
         <v>1.9899999999999951</v>
@@ -8731,7 +8901,7 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B206">
         <v>1.9899999999999951</v>
@@ -8742,7 +8912,7 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B207">
         <v>1.9899999999999951</v>
@@ -8753,7 +8923,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B208">
         <v>1.9899999999999951</v>
@@ -8764,7 +8934,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B209">
         <v>1.9899999999999951</v>
@@ -8775,7 +8945,7 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B210">
         <v>1.9899999999999951</v>
@@ -8786,7 +8956,7 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B211">
         <v>1.9899999999999951</v>
@@ -8797,7 +8967,7 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B212">
         <v>1.9899999999999951</v>
@@ -8808,7 +8978,7 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B213">
         <v>1.9899999999999951</v>
@@ -8819,7 +8989,7 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B214">
         <v>1.9899999999999951</v>
@@ -8830,7 +9000,7 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B215">
         <v>1.9899999999999951</v>
@@ -8841,7 +9011,7 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B216">
         <v>1.9899999999999951</v>
@@ -8852,7 +9022,7 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B217">
         <v>1.9899999999999951</v>
@@ -8863,7 +9033,7 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B218">
         <v>1.9899999999999951</v>
@@ -8874,7 +9044,7 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B219">
         <v>1.9899999999999951</v>
@@ -8885,7 +9055,7 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B220">
         <v>1.9899999999999951</v>
@@ -8896,7 +9066,7 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B221">
         <v>1.9899999999999951</v>
@@ -8907,7 +9077,7 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B222">
         <v>1.9899999999999951</v>
@@ -8918,7 +9088,7 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B223">
         <v>1.9899999999999951</v>
@@ -8929,7 +9099,7 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B224">
         <v>1.9899999999999951</v>
@@ -8940,7 +9110,7 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B225">
         <v>1.980000000000004</v>
@@ -8951,7 +9121,7 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B226">
         <v>2.390000000000001</v>
@@ -8962,7 +9132,7 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B227">
         <v>2.5600000000000018</v>
@@ -8973,7 +9143,7 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B228">
         <v>2.5600000000000018</v>
@@ -8984,7 +9154,7 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B229">
         <v>2.5600000000000018</v>
@@ -8995,7 +9165,7 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B230">
         <v>2.8199999999999932</v>
@@ -9006,7 +9176,7 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B231">
         <v>2.8199999999999932</v>
@@ -9017,7 +9187,7 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B232">
         <v>2.8199999999999932</v>
@@ -9028,7 +9198,7 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B233">
         <v>2.8199999999999932</v>
@@ -9039,7 +9209,7 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B234">
         <v>3.0400000000000058</v>
@@ -9050,7 +9220,7 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B235">
         <v>3.0400000000000058</v>
@@ -9061,7 +9231,7 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B236">
         <v>3.0400000000000058</v>
@@ -9072,7 +9242,7 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B237">
         <v>2.4899999999999949</v>
@@ -9083,7 +9253,7 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B238">
         <v>2.4899999999999949</v>
@@ -9094,7 +9264,7 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B239">
         <v>2.4899999999999949</v>
@@ -9105,7 +9275,7 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B240">
         <v>2.4899999999999949</v>
@@ -9116,7 +9286,7 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B241">
         <v>2.4899999999999949</v>
@@ -9127,7 +9297,7 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B242">
         <v>2.4899999999999949</v>
@@ -9138,7 +9308,7 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B243">
         <v>2.4899999999999949</v>
@@ -9149,7 +9319,7 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B244">
         <v>2.4899999999999949</v>
@@ -9160,7 +9330,7 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B245">
         <v>2.4899999999999949</v>
@@ -9171,7 +9341,7 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B246">
         <v>2.4899999999999949</v>
@@ -9182,7 +9352,7 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B247">
         <v>2.4899999999999949</v>
@@ -9193,7 +9363,7 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B248">
         <v>2.4899999999999949</v>
@@ -9204,7 +9374,7 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B249">
         <v>2.4899999999999949</v>
@@ -9215,7 +9385,7 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B250">
         <v>2.4899999999999949</v>
@@ -9226,7 +9396,7 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B251">
         <v>2.4899999999999949</v>
@@ -9237,7 +9407,7 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B252">
         <v>2.4899999999999949</v>
@@ -9248,7 +9418,7 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B253">
         <v>2.4899999999999949</v>
@@ -9259,7 +9429,7 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B254">
         <v>2.4899999999999949</v>
@@ -9270,7 +9440,7 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B255">
         <v>2.4899999999999949</v>
@@ -9281,7 +9451,7 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B256">
         <v>2.4899999999999949</v>
@@ -9292,7 +9462,7 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B257">
         <v>2.4899999999999949</v>
@@ -9303,7 +9473,7 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B258">
         <v>2.4899999999999949</v>
@@ -9314,7 +9484,7 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B259">
         <v>2.6899999999999982</v>
@@ -9325,7 +9495,7 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B260">
         <v>2.5</v>
@@ -9336,7 +9506,7 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B261">
         <v>2.2099999999999942</v>
@@ -9347,7 +9517,7 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B262">
         <v>2.2099999999999942</v>
@@ -9358,7 +9528,7 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B263">
         <v>2.2099999999999942</v>
@@ -9369,7 +9539,7 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B264">
         <v>2.2099999999999942</v>
@@ -9380,7 +9550,7 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B265">
         <v>2.2099999999999942</v>
@@ -9391,7 +9561,7 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B266">
         <v>2.2099999999999942</v>
@@ -9402,7 +9572,7 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B267">
         <v>2.2099999999999942</v>
@@ -9413,7 +9583,7 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B268">
         <v>2.2099999999999942</v>
@@ -9424,7 +9594,7 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B269">
         <v>2.3100000000000018</v>
@@ -9435,7 +9605,7 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B270">
         <v>2.3100000000000018</v>
@@ -9446,7 +9616,7 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B271">
         <v>2.3100000000000018</v>
@@ -9457,7 +9627,7 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B272">
         <v>2.0400000000000058</v>
@@ -9468,7 +9638,7 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B273">
         <v>2.3499999999999939</v>
@@ -9479,7 +9649,7 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B274">
         <v>2.8199999999999932</v>
@@ -9490,7 +9660,7 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B275">
         <v>2.7000000000000028</v>
@@ -9501,7 +9671,7 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B276">
         <v>2.7000000000000028</v>
@@ -9512,7 +9682,7 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B277">
         <v>2.7000000000000028</v>
@@ -9523,7 +9693,7 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B278">
         <v>2.7000000000000028</v>
@@ -9534,7 +9704,7 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B279">
         <v>2.519999999999996</v>
@@ -9545,7 +9715,7 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B280">
         <v>3.0499999999999972</v>
@@ -9556,7 +9726,7 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B281">
         <v>3.0499999999999972</v>
@@ -9567,7 +9737,7 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B282">
         <v>3.0499999999999972</v>
@@ -9578,7 +9748,7 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B283">
         <v>3.0499999999999972</v>
@@ -9589,7 +9759,7 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B284">
         <v>3.0499999999999972</v>
@@ -9600,7 +9770,7 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B285">
         <v>3.0499999999999972</v>
@@ -9611,7 +9781,7 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B286">
         <v>3.0499999999999972</v>
@@ -9622,7 +9792,7 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B287">
         <v>3.0499999999999972</v>
@@ -9633,7 +9803,7 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B288">
         <v>3.0499999999999972</v>
@@ -9644,7 +9814,7 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B289">
         <v>3.0499999999999972</v>
@@ -9655,7 +9825,7 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B290">
         <v>3.0499999999999972</v>
@@ -9666,7 +9836,7 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B291">
         <v>3.0499999999999972</v>
@@ -9677,7 +9847,7 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B292">
         <v>3.0499999999999972</v>
@@ -9688,7 +9858,7 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B293">
         <v>3.0499999999999972</v>
@@ -9699,7 +9869,7 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B294">
         <v>3.0499999999999972</v>
@@ -9710,7 +9880,7 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B295">
         <v>3.0499999999999972</v>
@@ -9721,7 +9891,7 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B296">
         <v>3.0499999999999972</v>
@@ -9732,7 +9902,7 @@
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B297">
         <v>3.0499999999999972</v>
@@ -9743,7 +9913,7 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B298">
         <v>3.0499999999999972</v>
@@ -9754,7 +9924,7 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B299">
         <v>3.0499999999999972</v>
@@ -9765,7 +9935,7 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B300">
         <v>3.0499999999999972</v>
@@ -9776,7 +9946,7 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B301">
         <v>3.0499999999999972</v>
@@ -9787,7 +9957,7 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B302">
         <v>3.0499999999999972</v>
@@ -9798,7 +9968,7 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B303">
         <v>3.0499999999999972</v>
@@ -9809,7 +9979,7 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B304">
         <v>3.0499999999999972</v>
@@ -9820,7 +9990,7 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B305">
         <v>3.0499999999999972</v>
@@ -9831,7 +10001,7 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B306">
         <v>3.0499999999999972</v>
@@ -9842,7 +10012,7 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B307">
         <v>3.0499999999999972</v>
@@ -9853,7 +10023,7 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B308">
         <v>3.0499999999999972</v>
@@ -9864,7 +10034,7 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B309">
         <v>3.9300000000000068</v>
@@ -9875,7 +10045,7 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B310">
         <v>3.7099999999999942</v>
@@ -9886,7 +10056,7 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B311">
         <v>4.3299999999999983</v>
@@ -9897,7 +10067,7 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B312">
         <v>4.3299999999999983</v>
@@ -9908,7 +10078,7 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B313">
         <v>4.3299999999999983</v>
@@ -9919,7 +10089,7 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B314">
         <v>4.3299999999999983</v>
@@ -9930,7 +10100,7 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B315">
         <v>4.3299999999999983</v>
@@ -9941,7 +10111,7 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B316">
         <v>4.3299999999999983</v>
@@ -9952,7 +10122,7 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B317">
         <v>4.3299999999999983</v>
@@ -9963,7 +10133,7 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B318">
         <v>4.3299999999999983</v>
@@ -9974,7 +10144,7 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B319">
         <v>4.3299999999999983</v>
@@ -9985,7 +10155,7 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B320">
         <v>4.3299999999999983</v>
@@ -9996,7 +10166,7 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B321">
         <v>4.3299999999999983</v>
@@ -10007,7 +10177,7 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B322">
         <v>4.3299999999999983</v>
@@ -10018,7 +10188,7 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B323">
         <v>4.3299999999999983</v>
@@ -10029,7 +10199,7 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B324">
         <v>4.3299999999999983</v>
@@ -10040,7 +10210,7 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B325">
         <v>4.3299999999999983</v>
@@ -10051,7 +10221,7 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B326">
         <v>4.3299999999999983</v>
@@ -10062,7 +10232,7 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B327">
         <v>4.3299999999999983</v>
@@ -10073,7 +10243,7 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B328">
         <v>4.3299999999999983</v>
@@ -10084,7 +10254,7 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B329">
         <v>4.3299999999999983</v>
@@ -10095,7 +10265,7 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B330">
         <v>4.3299999999999983</v>
@@ -10106,7 +10276,7 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B331">
         <v>4.3299999999999983</v>
@@ -10117,7 +10287,7 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B332">
         <v>4.3299999999999983</v>
@@ -10128,7 +10298,7 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B333">
         <v>4.3299999999999983</v>
@@ -10139,7 +10309,7 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B334">
         <v>4.3299999999999983</v>
@@ -10150,7 +10320,7 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B335">
         <v>4.3299999999999983</v>
@@ -10161,7 +10331,7 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B336">
         <v>4.3299999999999983</v>
@@ -10172,7 +10342,7 @@
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B337">
         <v>4.3299999999999983</v>
@@ -10183,7 +10353,7 @@
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B338">
         <v>4.3299999999999983</v>
@@ -10194,7 +10364,7 @@
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B339">
         <v>4.3299999999999983</v>
@@ -10205,7 +10375,7 @@
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B340">
         <v>4.3299999999999983</v>
@@ -10216,7 +10386,7 @@
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B341">
         <v>4.3299999999999983</v>
@@ -10227,7 +10397,7 @@
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B342">
         <v>4.3299999999999983</v>
@@ -10238,7 +10408,7 @@
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B343">
         <v>4.3299999999999983</v>
@@ -10249,7 +10419,7 @@
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B344">
         <v>4.3299999999999983</v>
@@ -10260,7 +10430,7 @@
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B345">
         <v>4.3299999999999983</v>
